--- a/data/trans_camb/P16A09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; -0,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; -0,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 0,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 4,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 1,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 6,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 2,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; -0,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 3,85</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,16%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,15; -9,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,18; -15,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,69; 6,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 53,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,37; 19,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,94; 68,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,93; 26,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,14; -0,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; 49,62</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 0,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 0,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 1,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 1,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 1,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 2,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 0,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 0,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 1,75</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,51%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,48; 96,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,14; 38,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,24; 158,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,31; 89,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,57; 103,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,61; 225,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,54; 69,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,8; 43,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,19; 156,31</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 2,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; -0,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; -0,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 0,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; -0,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 2,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 1,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; -0,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 0,99</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,83%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-74,22; 515,53</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 62,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,55; 74,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,49; 11,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,08; 176,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,57; 111,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,79; -27,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,98; 100,17</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 0,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; -0,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; -0,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 1,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; -0,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 1,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; -0,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 0,51</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,15%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,62; 2,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,61; -35,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,1; -8,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,43; 41,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,89; -5,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,24; 33,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,11; 16,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,35; -21,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,05; 13,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 0,35</t>
+          <t>-4,07; 0,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,34</t>
+          <t>0,4; 5,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,85</t>
+          <t>-0,96; 3,11</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-27,54%</t>
+          <t>-30,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>10,9%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,69; 6,61</t>
+          <t>-53,66; 3,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 68,8</t>
+          <t>2,83; 60,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 49,62</t>
+          <t>-9,92; 41,2</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,34</t>
+          <t>-0,54; 1,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,7</t>
+          <t>0,23; 2,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,75</t>
+          <t>0,17; 1,47</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>102,13%</t>
+          <t>80,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>81,51%</t>
+          <t>59,1%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 158,57</t>
+          <t>-33,66; 129,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,61; 225,55</t>
+          <t>12,44; 190,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,19; 156,31</t>
+          <t>9,4; 129,26</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,37</t>
+          <t>-1,46; 2,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,99</t>
+          <t>-1,27; 0,89</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-81,52%</t>
+          <t>-81,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>-7,79%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 62,9</t>
+          <t>-100,0; 62,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 176,17</t>
+          <t>-39,78; 163,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 100,17</t>
+          <t>-50,79; 85,72</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; -0,22</t>
+          <t>-2,02; -0,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,49</t>
+          <t>-1,23; 0,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,51</t>
+          <t>-1,3; 0,14</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-32,89%</t>
+          <t>-39,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>-13,88%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,1; -8,5</t>
+          <t>-58,28; -15,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 33,94</t>
+          <t>-23,04; 20,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 13,87</t>
+          <t>-30,04; 3,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,61</t>
+          <t>-4,73; -0,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,89; -0,94</t>
+          <t>-4,96; -1,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,17</t>
+          <t>-4,11; 0,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,92</t>
+          <t>-0,02; 4,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 1,8</t>
+          <t>-3,45; 1,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,64</t>
+          <t>0,35; 5,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,02</t>
+          <t>-1,25; 2,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; -0,16</t>
+          <t>-3,37; -0,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,11</t>
+          <t>-0,64; 2,94</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,15; -9,33</t>
+          <t>-61,34; -11,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,18; -15,96</t>
+          <t>-65,09; -20,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,66; 3,41</t>
+          <t>-54,39; 6,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 53,14</t>
+          <t>-0,19; 54,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 19,56</t>
+          <t>-30,74; 19,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 60,37</t>
+          <t>2,12; 62,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 26,35</t>
+          <t>-13,51; 25,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,14; -0,63</t>
+          <t>-36,41; -3,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 41,2</t>
+          <t>-6,76; 38,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,83</t>
+          <t>-0,71; 0,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,3</t>
+          <t>-1,05; 0,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,07</t>
+          <t>-0,56; 1,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,02</t>
+          <t>-0,8; 1,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,18</t>
+          <t>-0,69; 1,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,33</t>
+          <t>0,05; 2,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,77</t>
+          <t>-0,43; 0,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,51</t>
+          <t>-0,68; 0,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,47</t>
+          <t>0,19; 1,43</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 96,85</t>
+          <t>-42,87; 94,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,14; 38,72</t>
+          <t>-65,2; 38,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 129,28</t>
+          <t>-33,22; 122,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 89,18</t>
+          <t>-36,34; 87,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 103,94</t>
+          <t>-34,8; 102,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 190,3</t>
+          <t>4,08; 175,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 69,91</t>
+          <t>-26,87; 63,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 43,87</t>
+          <t>-39,03; 39,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 129,26</t>
+          <t>8,42; 119,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,16</t>
+          <t>-1,19; 2,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; -0,42</t>
+          <t>-3,04; -0,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; -0,13</t>
+          <t>-2,58; -0,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,82</t>
+          <t>-2,93; 0,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; -0,14</t>
+          <t>-3,62; -0,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,16</t>
+          <t>-1,64; 2,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,15</t>
+          <t>-1,61; 0,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; -0,46</t>
+          <t>-2,48; -0,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,89</t>
+          <t>-1,31; 0,83</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,22; 515,53</t>
+          <t>-78,19; 463,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 62,27</t>
+          <t>-100,0; 40,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-82,55; 74,09</t>
+          <t>-83,51; 79,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-92,49; 11,31</t>
+          <t>-92,89; 16,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,78; 163,61</t>
+          <t>-42,0; 167,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,57; 111,86</t>
+          <t>-70,86; 90,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-93,79; -27,91</t>
+          <t>-94,75; -35,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,79; 85,72</t>
+          <t>-51,04; 76,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,04</t>
+          <t>-1,68; 0,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; -0,92</t>
+          <t>-2,4; -0,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; -0,4</t>
+          <t>-1,99; -0,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,88</t>
+          <t>-0,38; 1,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; -0,26</t>
+          <t>-2,29; -0,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,95</t>
+          <t>-1,12; 0,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,62</t>
+          <t>-0,69; 0,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; -0,84</t>
+          <t>-2,04; -0,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,14</t>
+          <t>-1,25; 0,07</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,62; 2,46</t>
+          <t>-50,25; 1,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,61; -35,99</t>
+          <t>-69,49; -35,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,28; -15,33</t>
+          <t>-57,92; -17,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 41,2</t>
+          <t>-6,35; 40,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,89; -5,8</t>
+          <t>-40,11; -4,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 20,43</t>
+          <t>-20,36; 21,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 16,6</t>
+          <t>-15,55; 18,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,35; -21,76</t>
+          <t>-46,64; -21,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 3,88</t>
+          <t>-29,06; 1,87</t>
         </is>
       </c>
     </row>
